--- a/biology/Botanique/Schizolobium_parahyba/Schizolobium_parahyba.xlsx
+++ b/biology/Botanique/Schizolobium_parahyba/Schizolobium_parahyba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schizolobium parahyba  est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Amérique du Nord, d'Amérique centrale et d'Amérique du Sud.
-Ce sont des arbres tropicaux, connus pour leur grande rapidité de croissance (3 à 9 mètres par an[2]).
+Ce sont des arbres tropicaux, connus pour leur grande rapidité de croissance (3 à 9 mètres par an).
 L'espèce est connue sous de nombreux noms vernaculaires dans les langues locales :  garapivu, garapuvu (variante accentuée garapuvú), guaburuvu, guapiruvu, guapuruvu (variante accentuée guapuruvú), guarapuvu (variante accentuée guarapuvú), vapirubu, ou bien encore : bacurubu, bacuruva, badarra, birosca, faveira, ficheira, pataqueira, pau-de-vintém, pau-de-tamanco, umbela, yvapuruvu.
-Le garapuvu (Schizolobium parahyba) a été désigné « arbre symbole » de la ville de Florianópolis (État de Santa Catarina, Brésil) par décision municipale du 25 mai 1992[3].
+Le garapuvu (Schizolobium parahyba) a été désigné « arbre symbole » de la ville de Florianópolis (État de Santa Catarina, Brésil) par décision municipale du 25 mai 1992.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Caractères et usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre pousse en Amérique du Sud et notamment au Brésil. Il peut atteindre 40 mètres de hauteur.
 Son lieu de croissance est la forêt humide.
@@ -548,12 +562,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Schizolobium parahyba s'étend du Sud du Mexique : Chiapas, Oaxaca, Tabasco, Veracruz (17° de latitude Nord) au Sud du Brésil (30° de latitude Sud)[4].
-Schizolobium parahyba est une espèce d'arbres pionniers relativement répandue naturellement dans les différents types de forêts pluviales  néotropicales : atlantique, amazonienne, andine et d'Amérique centrale. C'est un arbre caractéristique des forêts de feuillus, en plaine et sur les flancs de collines, présent aussi dans les forêts sèches  et, très rarement, dans les forêts primaires denses. On le rencontre aussi dans les forêts galeries et sur les rives des cours d'eau rarement exposées aux inondations ainsi que dans les habitats rudéraux, les pâturages abandonnés et sur les bords de route[4].
-L'espèce a été introduite pour la culture dans différentes régions tropicales du monde : Afrique, Asie, États-Unis, Antilles, Fidji, etc[4].
-Elle est considérée comme envahissante dans certaines régions, par exemple à Madagascar[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Schizolobium parahyba s'étend du Sud du Mexique : Chiapas, Oaxaca, Tabasco, Veracruz (17° de latitude Nord) au Sud du Brésil (30° de latitude Sud).
+Schizolobium parahyba est une espèce d'arbres pionniers relativement répandue naturellement dans les différents types de forêts pluviales  néotropicales : atlantique, amazonienne, andine et d'Amérique centrale. C'est un arbre caractéristique des forêts de feuillus, en plaine et sur les flancs de collines, présent aussi dans les forêts sèches  et, très rarement, dans les forêts primaires denses. On le rencontre aussi dans les forêts galeries et sur les rives des cours d'eau rarement exposées aux inondations ainsi que dans les habitats rudéraux, les pâturages abandonnés et sur les bords de route.
+L'espèce a été introduite pour la culture dans différentes régions tropicales du monde : Afrique, Asie, États-Unis, Antilles, Fidji, etc.
+Elle est considérée comme envahissante dans certaines régions, par exemple à Madagascar.
 </t>
         </is>
       </c>
@@ -582,17 +598,88 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été initialement décrite par le botaniste brésilien, J. M. C. Vellozo, en 1825 sous le nom de  Cassia parahyba, puis reclassée dans le genre Schizolobium par le botaniste américain, Sidney Fay Blake, et publiée en 1919 sous le nom de Schizolobium parahybum dans la revue Contributions from the United States National Herbarium 20 (7): 240-241[6].
-Liste des variétés
-Selon Tropicos                                           (12 janvier 2019)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été initialement décrite par le botaniste brésilien, J. M. C. Vellozo, en 1825 sous le nom de  Cassia parahyba, puis reclassée dans le genre Schizolobium par le botaniste américain, Sidney Fay Blake, et publiée en 1919 sous le nom de Schizolobium parahybum dans la revue Contributions from the United States National Herbarium 20 (7): 240-241.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Schizolobium_parahyba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schizolobium_parahyba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 janvier 2019) (Attention liste brute contenant possiblement des synonymes) :
 Schizolobium parahyba var. amazonicum (Huber ex Ducke) Barneby
-Schizolobium parahyba var. parahyba
-Synonymes
-Selon The Plant List            (12 janvier 2019)[1] :
+Schizolobium parahyba var. parahyba</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Schizolobium_parahyba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schizolobium_parahyba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (12 janvier 2019) :
 Caesalpinia parahyba (Vell.) Allemao
-Cassia parahyba Vell. (basionyme[7])
+Cassia parahyba Vell. (basionyme)
 Schizolobium excelsum Vogel
 Schizolobium glutinosum Tul.
 Schizolobium kellermanii Pittier
